--- a/biology/Botanique/Codiaceae/Codiaceae.xlsx
+++ b/biology/Botanique/Codiaceae/Codiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Codiaceae sont une famille d’algues vertes de l’ordre des Bryopsidales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Codium, dérivé du grec ancien kωδιον / kodion, « petite toison ; fourrure », en référence à la texture de l'algue dont les filaments tubulaires donnent au touché une impression de feutre ou de velours.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (11 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (11 août 2017) :
 Abacella Maslov
 Appeninocodium O.Dragastan
 Arabicodium G.F.Elliott
@@ -553,30 +569,30 @@
 Geppella Børgesen
 Johnsonicodium O.Dragastan
 Neoanchicodium
-Selon BioLib                    (11 août 2017)[2] :
+Selon BioLib                    (11 août 2017) :
 Arabicodium G.F. Elliott
 Callipsygma J. Agardh
 Codium J. Stackhouse
 Flabellia J.V. Lamouroux
 Geppella Børgesen
-Selon Catalogue of Life                                   (11 août 2017)[3] :
+Selon Catalogue of Life                                   (11 août 2017) :
 Abacella
 Anthocodium
 Codium
 Paragarwoodia
 Sertolara
-Selon ITIS      (11 août 2017)[4] :
+Selon ITIS      (11 août 2017) :
 Codium J. Stackhouse, 1797
 Espera J. Decaisne, 1842
 Halicystis
 Tydemania
-Selon Paleobiology Database                   (11 août 2017)[5] :
+Selon Paleobiology Database                   (11 août 2017) :
 Anchicodium
 Arabicodium
 Ivanovia
 Litanaia
 Polygonella
-Selon World Register of Marine Species                               (11 août 2017)[6] :
+Selon World Register of Marine Species                               (11 août 2017) :
 Abacella Maslov, 1956
 Acanthocodium W.F.R.Suringar, 1867
 Arabicodium G.F.Elliott, 1957
